--- a/example/01_period_results.xlsx
+++ b/example/01_period_results.xlsx
@@ -11,7 +11,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ALL-X" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Pier1-X" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ALL-Y" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ALL-Z" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="StructZdir-Z" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -530,7 +530,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>ALL</t>
+          <t>StructZdir</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -539,13 +539,13 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.9398</v>
+        <v>0.0464</v>
       </c>
       <c r="D5" t="n">
-        <v>81.3169</v>
+        <v>0.0977</v>
       </c>
       <c r="E5" t="n">
-        <v>17.8456</v>
+        <v>0.0001</v>
       </c>
     </row>
   </sheetData>
@@ -9242,7 +9242,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C306"/>
+  <dimension ref="A1:C106"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10564,2666 +10564,66 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>J002</t>
+          <t>J017</t>
         </is>
       </c>
       <c r="B102" t="n">
-        <v>0.9993874</v>
+        <v>1.558962</v>
       </c>
       <c r="C102" t="n">
-        <v>-0.0487894</v>
+        <v>-0.001034954</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>J003</t>
+          <t>J052</t>
         </is>
       </c>
       <c r="B103" t="n">
-        <v>1.392748</v>
+        <v>0.1662602</v>
       </c>
       <c r="C103" t="n">
-        <v>-0.09936991000000001</v>
+        <v>-0.004410529</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>J004</t>
+          <t>J061</t>
         </is>
       </c>
       <c r="B104" t="n">
-        <v>1.13057</v>
+        <v>0.1662602</v>
       </c>
       <c r="C104" t="n">
-        <v>-0.1596747</v>
+        <v>-0.00454325</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>J005</t>
+          <t>J096</t>
         </is>
       </c>
       <c r="B105" t="n">
-        <v>1.392748</v>
+        <v>1.558962</v>
       </c>
       <c r="C105" t="n">
-        <v>-0.1911447</v>
+        <v>-0.000917914</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>J006</t>
+          <t>J112</t>
         </is>
       </c>
       <c r="B106" t="n">
-        <v>1.13057</v>
+        <v>1.558962</v>
       </c>
       <c r="C106" t="n">
-        <v>-0.2324022</v>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" t="inlineStr">
-        <is>
-          <t>J007</t>
-        </is>
-      </c>
-      <c r="B107" t="n">
-        <v>1.392748</v>
-      </c>
-      <c r="C107" t="n">
-        <v>-0.2459491</v>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" t="inlineStr">
-        <is>
-          <t>J008</t>
-        </is>
-      </c>
-      <c r="B108" t="n">
-        <v>1.13057</v>
-      </c>
-      <c r="C108" t="n">
-        <v>-0.2686723</v>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" t="inlineStr">
-        <is>
-          <t>J009</t>
-        </is>
-      </c>
-      <c r="B109" t="n">
-        <v>1.392748</v>
-      </c>
-      <c r="C109" t="n">
-        <v>-0.2636308</v>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" t="inlineStr">
-        <is>
-          <t>J010</t>
-        </is>
-      </c>
-      <c r="B110" t="n">
-        <v>1.13057</v>
-      </c>
-      <c r="C110" t="n">
-        <v>-0.2686894</v>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" t="inlineStr">
-        <is>
-          <t>J011</t>
-        </is>
-      </c>
-      <c r="B111" t="n">
-        <v>1.392748</v>
-      </c>
-      <c r="C111" t="n">
-        <v>-0.2459834</v>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" t="inlineStr">
-        <is>
-          <t>J012</t>
-        </is>
-      </c>
-      <c r="B112" t="n">
-        <v>1.13057</v>
-      </c>
-      <c r="C112" t="n">
-        <v>-0.2324535</v>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" t="inlineStr">
-        <is>
-          <t>J013</t>
-        </is>
-      </c>
-      <c r="B113" t="n">
-        <v>1.392748</v>
-      </c>
-      <c r="C113" t="n">
-        <v>-0.1912131</v>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" t="inlineStr">
-        <is>
-          <t>J014</t>
-        </is>
-      </c>
-      <c r="B114" t="n">
-        <v>1.13057</v>
-      </c>
-      <c r="C114" t="n">
-        <v>-0.1597602</v>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" t="inlineStr">
-        <is>
-          <t>J015</t>
-        </is>
-      </c>
-      <c r="B115" t="n">
-        <v>1.392748</v>
-      </c>
-      <c r="C115" t="n">
-        <v>-0.09947246</v>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" t="inlineStr">
-        <is>
-          <t>J016</t>
-        </is>
-      </c>
-      <c r="B116" t="n">
-        <v>0.9993874</v>
-      </c>
-      <c r="C116" t="n">
-        <v>-0.04890899</v>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" t="inlineStr">
-        <is>
-          <t>J017</t>
-        </is>
-      </c>
-      <c r="B117" t="n">
-        <v>1.558962</v>
-      </c>
-      <c r="C117" t="n">
-        <v>-0.001034954</v>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" t="inlineStr">
-        <is>
-          <t>J018</t>
-        </is>
-      </c>
-      <c r="B118" t="n">
-        <v>2.46521</v>
-      </c>
-      <c r="C118" t="n">
-        <v>-0.003539633</v>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" t="inlineStr">
-        <is>
-          <t>J019</t>
-        </is>
-      </c>
-      <c r="B119" t="n">
-        <v>5.453626</v>
-      </c>
-      <c r="C119" t="n">
-        <v>-0.05476887</v>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" t="inlineStr">
-        <is>
-          <t>J020</t>
-        </is>
-      </c>
-      <c r="B120" t="n">
-        <v>6.281804</v>
-      </c>
-      <c r="C120" t="n">
-        <v>-0.1049835</v>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" t="inlineStr">
-        <is>
-          <t>J021</t>
-        </is>
-      </c>
-      <c r="B121" t="n">
-        <v>6.281804</v>
-      </c>
-      <c r="C121" t="n">
-        <v>-0.1670784</v>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" t="inlineStr">
-        <is>
-          <t>J022</t>
-        </is>
-      </c>
-      <c r="B122" t="n">
-        <v>6.281804</v>
-      </c>
-      <c r="C122" t="n">
-        <v>-0.1968117</v>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" t="inlineStr">
-        <is>
-          <t>J023</t>
-        </is>
-      </c>
-      <c r="B123" t="n">
-        <v>6.281804</v>
-      </c>
-      <c r="C123" t="n">
-        <v>-0.2399086</v>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" t="inlineStr">
-        <is>
-          <t>J024</t>
-        </is>
-      </c>
-      <c r="B124" t="n">
-        <v>6.281804</v>
-      </c>
-      <c r="C124" t="n">
-        <v>-0.2516428</v>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" t="inlineStr">
-        <is>
-          <t>J025</t>
-        </is>
-      </c>
-      <c r="B125" t="n">
-        <v>6.281804</v>
-      </c>
-      <c r="C125" t="n">
-        <v>-0.2762287</v>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" t="inlineStr">
-        <is>
-          <t>J026</t>
-        </is>
-      </c>
-      <c r="B126" t="n">
-        <v>6.281804</v>
-      </c>
-      <c r="C126" t="n">
-        <v>-0.2693414</v>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" t="inlineStr">
-        <is>
-          <t>J027</t>
-        </is>
-      </c>
-      <c r="B127" t="n">
-        <v>6.281804</v>
-      </c>
-      <c r="C127" t="n">
-        <v>-0.2762458</v>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" t="inlineStr">
-        <is>
-          <t>J028</t>
-        </is>
-      </c>
-      <c r="B128" t="n">
-        <v>6.281804</v>
-      </c>
-      <c r="C128" t="n">
-        <v>-0.2516771</v>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" t="inlineStr">
-        <is>
-          <t>J029</t>
-        </is>
-      </c>
-      <c r="B129" t="n">
-        <v>6.281804</v>
-      </c>
-      <c r="C129" t="n">
-        <v>-0.23996</v>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" t="inlineStr">
-        <is>
-          <t>J030</t>
-        </is>
-      </c>
-      <c r="B130" t="n">
-        <v>6.281804</v>
-      </c>
-      <c r="C130" t="n">
-        <v>-0.1968803</v>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" t="inlineStr">
-        <is>
-          <t>J031</t>
-        </is>
-      </c>
-      <c r="B131" t="n">
-        <v>6.281804</v>
-      </c>
-      <c r="C131" t="n">
-        <v>-0.1671641</v>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" t="inlineStr">
-        <is>
-          <t>J032</t>
-        </is>
-      </c>
-      <c r="B132" t="n">
-        <v>6.281804</v>
-      </c>
-      <c r="C132" t="n">
-        <v>-0.1050863</v>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" t="inlineStr">
-        <is>
-          <t>J033</t>
-        </is>
-      </c>
-      <c r="B133" t="n">
-        <v>5.453626</v>
-      </c>
-      <c r="C133" t="n">
-        <v>-0.05488881</v>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" t="inlineStr">
-        <is>
-          <t>J034</t>
-        </is>
-      </c>
-      <c r="B134" t="n">
-        <v>2.46521</v>
-      </c>
-      <c r="C134" t="n">
-        <v>-0.003671954</v>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" t="inlineStr">
-        <is>
-          <t>J035</t>
-        </is>
-      </c>
-      <c r="B135" t="n">
-        <v>1.363531</v>
-      </c>
-      <c r="C135" t="n">
-        <v>-0.004219641</v>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" t="inlineStr">
-        <is>
-          <t>J036</t>
-        </is>
-      </c>
-      <c r="B136" t="n">
-        <v>2.991942</v>
-      </c>
-      <c r="C136" t="n">
-        <v>-0.05637849</v>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" t="inlineStr">
-        <is>
-          <t>J037</t>
-        </is>
-      </c>
-      <c r="B137" t="n">
-        <v>3.519958</v>
-      </c>
-      <c r="C137" t="n">
-        <v>-0.1065736</v>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" t="inlineStr">
-        <is>
-          <t>J038</t>
-        </is>
-      </c>
-      <c r="B138" t="n">
-        <v>3.443654</v>
-      </c>
-      <c r="C138" t="n">
-        <v>-0.1691129</v>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" t="inlineStr">
-        <is>
-          <t>J039</t>
-        </is>
-      </c>
-      <c r="B139" t="n">
-        <v>3.519958</v>
-      </c>
-      <c r="C139" t="n">
-        <v>-0.1984758</v>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" t="inlineStr">
-        <is>
-          <t>J040</t>
-        </is>
-      </c>
-      <c r="B140" t="n">
-        <v>3.443654</v>
-      </c>
-      <c r="C140" t="n">
-        <v>-0.2420022</v>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" t="inlineStr">
-        <is>
-          <t>J041</t>
-        </is>
-      </c>
-      <c r="B141" t="n">
-        <v>3.519958</v>
-      </c>
-      <c r="C141" t="n">
-        <v>-0.2533436</v>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142" t="inlineStr">
-        <is>
-          <t>J042</t>
-        </is>
-      </c>
-      <c r="B142" t="n">
-        <v>3.443654</v>
-      </c>
-      <c r="C142" t="n">
-        <v>-0.2783504</v>
-      </c>
-    </row>
-    <row r="143">
-      <c r="A143" t="inlineStr">
-        <is>
-          <t>J043</t>
-        </is>
-      </c>
-      <c r="B143" t="n">
-        <v>3.519958</v>
-      </c>
-      <c r="C143" t="n">
-        <v>-0.271055</v>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144" t="inlineStr">
-        <is>
-          <t>J044</t>
-        </is>
-      </c>
-      <c r="B144" t="n">
-        <v>3.443654</v>
-      </c>
-      <c r="C144" t="n">
-        <v>-0.2783675</v>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145" t="inlineStr">
-        <is>
-          <t>J045</t>
-        </is>
-      </c>
-      <c r="B145" t="n">
-        <v>3.519958</v>
-      </c>
-      <c r="C145" t="n">
-        <v>-0.253378</v>
-      </c>
-    </row>
-    <row r="146">
-      <c r="A146" t="inlineStr">
-        <is>
-          <t>J046</t>
-        </is>
-      </c>
-      <c r="B146" t="n">
-        <v>3.443654</v>
-      </c>
-      <c r="C146" t="n">
-        <v>-0.2420537</v>
-      </c>
-    </row>
-    <row r="147">
-      <c r="A147" t="inlineStr">
-        <is>
-          <t>J047</t>
-        </is>
-      </c>
-      <c r="B147" t="n">
-        <v>3.519958</v>
-      </c>
-      <c r="C147" t="n">
-        <v>-0.1985444</v>
-      </c>
-    </row>
-    <row r="148">
-      <c r="A148" t="inlineStr">
-        <is>
-          <t>J048</t>
-        </is>
-      </c>
-      <c r="B148" t="n">
-        <v>3.443654</v>
-      </c>
-      <c r="C148" t="n">
-        <v>-0.1691988</v>
-      </c>
-    </row>
-    <row r="149">
-      <c r="A149" t="inlineStr">
-        <is>
-          <t>J049</t>
-        </is>
-      </c>
-      <c r="B149" t="n">
-        <v>3.519958</v>
-      </c>
-      <c r="C149" t="n">
-        <v>-0.1066765</v>
-      </c>
-    </row>
-    <row r="150">
-      <c r="A150" t="inlineStr">
-        <is>
-          <t>J050</t>
-        </is>
-      </c>
-      <c r="B150" t="n">
-        <v>2.991942</v>
-      </c>
-      <c r="C150" t="n">
-        <v>-0.0564986</v>
-      </c>
-    </row>
-    <row r="151">
-      <c r="A151" t="inlineStr">
-        <is>
-          <t>J051</t>
-        </is>
-      </c>
-      <c r="B151" t="n">
-        <v>1.363531</v>
-      </c>
-      <c r="C151" t="n">
-        <v>-0.004352167</v>
-      </c>
-    </row>
-    <row r="152">
-      <c r="A152" t="inlineStr">
-        <is>
-          <t>J052</t>
-        </is>
-      </c>
-      <c r="B152" t="n">
-        <v>0.1662602</v>
-      </c>
-      <c r="C152" t="n">
-        <v>-0.004410529</v>
-      </c>
-    </row>
-    <row r="153">
-      <c r="A153" t="inlineStr">
-        <is>
-          <t>J053</t>
-        </is>
-      </c>
-      <c r="B153" t="n">
-        <v>0.4838426</v>
-      </c>
-      <c r="C153" t="n">
-        <v>-0.05690399</v>
-      </c>
-    </row>
-    <row r="154">
-      <c r="A154" t="inlineStr">
-        <is>
-          <t>J054</t>
-        </is>
-      </c>
-      <c r="B154" t="n">
-        <v>0.5198101000000001</v>
-      </c>
-      <c r="C154" t="n">
-        <v>-0.1698508</v>
-      </c>
-    </row>
-    <row r="155">
-      <c r="A155" t="inlineStr">
-        <is>
-          <t>J055</t>
-        </is>
-      </c>
-      <c r="B155" t="n">
-        <v>0.5198101000000001</v>
-      </c>
-      <c r="C155" t="n">
-        <v>-0.2428009</v>
-      </c>
-    </row>
-    <row r="156">
-      <c r="A156" t="inlineStr">
-        <is>
-          <t>J056</t>
-        </is>
-      </c>
-      <c r="B156" t="n">
-        <v>0.5198101000000001</v>
-      </c>
-      <c r="C156" t="n">
-        <v>-0.2791776</v>
-      </c>
-    </row>
-    <row r="157">
-      <c r="A157" t="inlineStr">
-        <is>
-          <t>J057</t>
-        </is>
-      </c>
-      <c r="B157" t="n">
-        <v>0.5198101000000001</v>
-      </c>
-      <c r="C157" t="n">
-        <v>-0.2791948</v>
-      </c>
-    </row>
-    <row r="158">
-      <c r="A158" t="inlineStr">
-        <is>
-          <t>J058</t>
-        </is>
-      </c>
-      <c r="B158" t="n">
-        <v>0.5198101000000001</v>
-      </c>
-      <c r="C158" t="n">
-        <v>-0.2428525</v>
-      </c>
-    </row>
-    <row r="159">
-      <c r="A159" t="inlineStr">
-        <is>
-          <t>J059</t>
-        </is>
-      </c>
-      <c r="B159" t="n">
-        <v>0.5198101000000001</v>
-      </c>
-      <c r="C159" t="n">
-        <v>-0.1699367</v>
-      </c>
-    </row>
-    <row r="160">
-      <c r="A160" t="inlineStr">
-        <is>
-          <t>J060</t>
-        </is>
-      </c>
-      <c r="B160" t="n">
-        <v>0.4838426</v>
-      </c>
-      <c r="C160" t="n">
-        <v>-0.05702425</v>
-      </c>
-    </row>
-    <row r="161">
-      <c r="A161" t="inlineStr">
-        <is>
-          <t>J061</t>
-        </is>
-      </c>
-      <c r="B161" t="n">
-        <v>0.1662602</v>
-      </c>
-      <c r="C161" t="n">
-        <v>-0.00454325</v>
-      </c>
-    </row>
-    <row r="162">
-      <c r="A162" t="inlineStr">
-        <is>
-          <t>J062</t>
-        </is>
-      </c>
-      <c r="B162" t="n">
-        <v>1.516934</v>
-      </c>
-      <c r="C162" t="n">
-        <v>-0.004201571</v>
-      </c>
-    </row>
-    <row r="163">
-      <c r="A163" t="inlineStr">
-        <is>
-          <t>J063</t>
-        </is>
-      </c>
-      <c r="B163" t="n">
-        <v>3.356937</v>
-      </c>
-      <c r="C163" t="n">
-        <v>-0.05656594</v>
-      </c>
-    </row>
-    <row r="164">
-      <c r="A164" t="inlineStr">
-        <is>
-          <t>J064</t>
-        </is>
-      </c>
-      <c r="B164" t="n">
-        <v>3.94314</v>
-      </c>
-      <c r="C164" t="n">
-        <v>-0.1068551</v>
-      </c>
-    </row>
-    <row r="165">
-      <c r="A165" t="inlineStr">
-        <is>
-          <t>J065</t>
-        </is>
-      </c>
-      <c r="B165" t="n">
-        <v>3.866836</v>
-      </c>
-      <c r="C165" t="n">
-        <v>-0.1695603</v>
-      </c>
-    </row>
-    <row r="166">
-      <c r="A166" t="inlineStr">
-        <is>
-          <t>J066</t>
-        </is>
-      </c>
-      <c r="B166" t="n">
-        <v>3.94314</v>
-      </c>
-      <c r="C166" t="n">
-        <v>-0.1989583</v>
-      </c>
-    </row>
-    <row r="167">
-      <c r="A167" t="inlineStr">
-        <is>
-          <t>J067</t>
-        </is>
-      </c>
-      <c r="B167" t="n">
-        <v>3.866836</v>
-      </c>
-      <c r="C167" t="n">
-        <v>-0.2425769</v>
-      </c>
-    </row>
-    <row r="168">
-      <c r="A168" t="inlineStr">
-        <is>
-          <t>J068</t>
-        </is>
-      </c>
-      <c r="B168" t="n">
-        <v>3.94314</v>
-      </c>
-      <c r="C168" t="n">
-        <v>-0.253928</v>
-      </c>
-    </row>
-    <row r="169">
-      <c r="A169" t="inlineStr">
-        <is>
-          <t>J069</t>
-        </is>
-      </c>
-      <c r="B169" t="n">
-        <v>3.866836</v>
-      </c>
-      <c r="C169" t="n">
-        <v>-0.2789845</v>
-      </c>
-    </row>
-    <row r="170">
-      <c r="A170" t="inlineStr">
-        <is>
-          <t>J070</t>
-        </is>
-      </c>
-      <c r="B170" t="n">
-        <v>3.94314</v>
-      </c>
-      <c r="C170" t="n">
-        <v>-0.2716695</v>
-      </c>
-    </row>
-    <row r="171">
-      <c r="A171" t="inlineStr">
-        <is>
-          <t>J071</t>
-        </is>
-      </c>
-      <c r="B171" t="n">
-        <v>3.866836</v>
-      </c>
-      <c r="C171" t="n">
-        <v>-0.2790017</v>
-      </c>
-    </row>
-    <row r="172">
-      <c r="A172" t="inlineStr">
-        <is>
-          <t>J072</t>
-        </is>
-      </c>
-      <c r="B172" t="n">
-        <v>3.94314</v>
-      </c>
-      <c r="C172" t="n">
-        <v>-0.2539624</v>
-      </c>
-    </row>
-    <row r="173">
-      <c r="A173" t="inlineStr">
-        <is>
-          <t>J073</t>
-        </is>
-      </c>
-      <c r="B173" t="n">
-        <v>3.866836</v>
-      </c>
-      <c r="C173" t="n">
-        <v>-0.2426285</v>
-      </c>
-    </row>
-    <row r="174">
-      <c r="A174" t="inlineStr">
-        <is>
-          <t>J074</t>
-        </is>
-      </c>
-      <c r="B174" t="n">
-        <v>3.94314</v>
-      </c>
-      <c r="C174" t="n">
-        <v>-0.1990271</v>
-      </c>
-    </row>
-    <row r="175">
-      <c r="A175" t="inlineStr">
-        <is>
-          <t>J075</t>
-        </is>
-      </c>
-      <c r="B175" t="n">
-        <v>3.866836</v>
-      </c>
-      <c r="C175" t="n">
-        <v>-0.1696463</v>
-      </c>
-    </row>
-    <row r="176">
-      <c r="A176" t="inlineStr">
-        <is>
-          <t>J076</t>
-        </is>
-      </c>
-      <c r="B176" t="n">
-        <v>3.94314</v>
-      </c>
-      <c r="C176" t="n">
-        <v>-0.1069583</v>
-      </c>
-    </row>
-    <row r="177">
-      <c r="A177" t="inlineStr">
-        <is>
-          <t>J077</t>
-        </is>
-      </c>
-      <c r="B177" t="n">
-        <v>3.356937</v>
-      </c>
-      <c r="C177" t="n">
-        <v>-0.05668635</v>
-      </c>
-    </row>
-    <row r="178">
-      <c r="A178" t="inlineStr">
-        <is>
-          <t>J078</t>
-        </is>
-      </c>
-      <c r="B178" t="n">
-        <v>1.516934</v>
-      </c>
-      <c r="C178" t="n">
-        <v>-0.004334488</v>
-      </c>
-    </row>
-    <row r="179">
-      <c r="A179" t="inlineStr">
-        <is>
-          <t>J079</t>
-        </is>
-      </c>
-      <c r="B179" t="n">
-        <v>2.618613</v>
-      </c>
-      <c r="C179" t="n">
-        <v>-0.003504115</v>
-      </c>
-    </row>
-    <row r="180">
-      <c r="A180" t="inlineStr">
-        <is>
-          <t>J080</t>
-        </is>
-      </c>
-      <c r="B180" t="n">
-        <v>5.81862</v>
-      </c>
-      <c r="C180" t="n">
-        <v>-0.05512529</v>
-      </c>
-    </row>
-    <row r="181">
-      <c r="A181" t="inlineStr">
-        <is>
-          <t>J081</t>
-        </is>
-      </c>
-      <c r="B181" t="n">
-        <v>6.704986</v>
-      </c>
-      <c r="C181" t="n">
-        <v>-0.1055319</v>
-      </c>
-    </row>
-    <row r="182">
-      <c r="A182" t="inlineStr">
-        <is>
-          <t>J082</t>
-        </is>
-      </c>
-      <c r="B182" t="n">
-        <v>6.704986</v>
-      </c>
-      <c r="C182" t="n">
-        <v>-0.1679667</v>
-      </c>
-    </row>
-    <row r="183">
-      <c r="A183" t="inlineStr">
-        <is>
-          <t>J083</t>
-        </is>
-      </c>
-      <c r="B183" t="n">
-        <v>6.704986</v>
-      </c>
-      <c r="C183" t="n">
-        <v>-0.1977698</v>
-      </c>
-    </row>
-    <row r="184">
-      <c r="A184" t="inlineStr">
-        <is>
-          <t>J084</t>
-        </is>
-      </c>
-      <c r="B184" t="n">
-        <v>6.704986</v>
-      </c>
-      <c r="C184" t="n">
-        <v>-0.2410607</v>
-      </c>
-    </row>
-    <row r="185">
-      <c r="A185" t="inlineStr">
-        <is>
-          <t>J085</t>
-        </is>
-      </c>
-      <c r="B185" t="n">
-        <v>6.704986</v>
-      </c>
-      <c r="C185" t="n">
-        <v>-0.2528092</v>
-      </c>
-    </row>
-    <row r="186">
-      <c r="A186" t="inlineStr">
-        <is>
-          <t>J086</t>
-        </is>
-      </c>
-      <c r="B186" t="n">
-        <v>6.704986</v>
-      </c>
-      <c r="C186" t="n">
-        <v>-0.2775039</v>
-      </c>
-    </row>
-    <row r="187">
-      <c r="A187" t="inlineStr">
-        <is>
-          <t>J087</t>
-        </is>
-      </c>
-      <c r="B187" t="n">
-        <v>6.704986</v>
-      </c>
-      <c r="C187" t="n">
-        <v>-0.2705696</v>
-      </c>
-    </row>
-    <row r="188">
-      <c r="A188" t="inlineStr">
-        <is>
-          <t>J088</t>
-        </is>
-      </c>
-      <c r="B188" t="n">
-        <v>6.704986</v>
-      </c>
-      <c r="C188" t="n">
-        <v>-0.2775212</v>
-      </c>
-    </row>
-    <row r="189">
-      <c r="A189" t="inlineStr">
-        <is>
-          <t>J089</t>
-        </is>
-      </c>
-      <c r="B189" t="n">
-        <v>6.704986</v>
-      </c>
-      <c r="C189" t="n">
-        <v>-0.2528436</v>
-      </c>
-    </row>
-    <row r="190">
-      <c r="A190" t="inlineStr">
-        <is>
-          <t>J090</t>
-        </is>
-      </c>
-      <c r="B190" t="n">
-        <v>6.704986</v>
-      </c>
-      <c r="C190" t="n">
-        <v>-0.2411123</v>
-      </c>
-    </row>
-    <row r="191">
-      <c r="A191" t="inlineStr">
-        <is>
-          <t>J091</t>
-        </is>
-      </c>
-      <c r="B191" t="n">
-        <v>6.704986</v>
-      </c>
-      <c r="C191" t="n">
-        <v>-0.1978387</v>
-      </c>
-    </row>
-    <row r="192">
-      <c r="A192" t="inlineStr">
-        <is>
-          <t>J092</t>
-        </is>
-      </c>
-      <c r="B192" t="n">
-        <v>6.704986</v>
-      </c>
-      <c r="C192" t="n">
-        <v>-0.1680528</v>
-      </c>
-    </row>
-    <row r="193">
-      <c r="A193" t="inlineStr">
-        <is>
-          <t>J093</t>
-        </is>
-      </c>
-      <c r="B193" t="n">
-        <v>6.704986</v>
-      </c>
-      <c r="C193" t="n">
-        <v>-0.1056352</v>
-      </c>
-    </row>
-    <row r="194">
-      <c r="A194" t="inlineStr">
-        <is>
-          <t>J094</t>
-        </is>
-      </c>
-      <c r="B194" t="n">
-        <v>5.81862</v>
-      </c>
-      <c r="C194" t="n">
-        <v>-0.05524587</v>
-      </c>
-    </row>
-    <row r="195">
-      <c r="A195" t="inlineStr">
-        <is>
-          <t>J095</t>
-        </is>
-      </c>
-      <c r="B195" t="n">
-        <v>2.618613</v>
-      </c>
-      <c r="C195" t="n">
-        <v>-0.003637237</v>
-      </c>
-    </row>
-    <row r="196">
-      <c r="A196" t="inlineStr">
-        <is>
-          <t>J096</t>
-        </is>
-      </c>
-      <c r="B196" t="n">
-        <v>1.558962</v>
-      </c>
-      <c r="C196" t="n">
-        <v>-0.000917914</v>
-      </c>
-    </row>
-    <row r="197">
-      <c r="A197" t="inlineStr">
-        <is>
-          <t>J097</t>
-        </is>
-      </c>
-      <c r="B197" t="n">
-        <v>0.9993874</v>
-      </c>
-      <c r="C197" t="n">
-        <v>-0.04941336</v>
-      </c>
-    </row>
-    <row r="198">
-      <c r="A198" t="inlineStr">
-        <is>
-          <t>J098</t>
-        </is>
-      </c>
-      <c r="B198" t="n">
-        <v>1.392748</v>
-      </c>
-      <c r="C198" t="n">
-        <v>-0.1004002</v>
-      </c>
-    </row>
-    <row r="199">
-      <c r="A199" t="inlineStr">
-        <is>
-          <t>J099</t>
-        </is>
-      </c>
-      <c r="B199" t="n">
-        <v>1.13057</v>
-      </c>
-      <c r="C199" t="n">
-        <v>-0.1613744</v>
-      </c>
-    </row>
-    <row r="200">
-      <c r="A200" t="inlineStr">
-        <is>
-          <t>J100</t>
-        </is>
-      </c>
-      <c r="B200" t="n">
-        <v>1.392748</v>
-      </c>
-      <c r="C200" t="n">
-        <v>-0.1929659</v>
-      </c>
-    </row>
-    <row r="201">
-      <c r="A201" t="inlineStr">
-        <is>
-          <t>J101</t>
-        </is>
-      </c>
-      <c r="B201" t="n">
-        <v>1.13057</v>
-      </c>
-      <c r="C201" t="n">
-        <v>-0.2346528</v>
-      </c>
-    </row>
-    <row r="202">
-      <c r="A202" t="inlineStr">
-        <is>
-          <t>J102</t>
-        </is>
-      </c>
-      <c r="B202" t="n">
-        <v>1.392748</v>
-      </c>
-      <c r="C202" t="n">
-        <v>-0.2481807</v>
-      </c>
-    </row>
-    <row r="203">
-      <c r="A203" t="inlineStr">
-        <is>
-          <t>J103</t>
-        </is>
-      </c>
-      <c r="B203" t="n">
-        <v>1.13057</v>
-      </c>
-      <c r="C203" t="n">
-        <v>-0.2711802</v>
-      </c>
-    </row>
-    <row r="204">
-      <c r="A204" t="inlineStr">
-        <is>
-          <t>J104</t>
-        </is>
-      </c>
-      <c r="B204" t="n">
-        <v>1.392748</v>
-      </c>
-      <c r="C204" t="n">
-        <v>-0.2659861</v>
-      </c>
-    </row>
-    <row r="205">
-      <c r="A205" t="inlineStr">
-        <is>
-          <t>J105</t>
-        </is>
-      </c>
-      <c r="B205" t="n">
-        <v>1.13057</v>
-      </c>
-      <c r="C205" t="n">
-        <v>-0.2711975</v>
-      </c>
-    </row>
-    <row r="206">
-      <c r="A206" t="inlineStr">
-        <is>
-          <t>J106</t>
-        </is>
-      </c>
-      <c r="B206" t="n">
-        <v>1.392748</v>
-      </c>
-      <c r="C206" t="n">
-        <v>-0.2482152</v>
-      </c>
-    </row>
-    <row r="207">
-      <c r="A207" t="inlineStr">
-        <is>
-          <t>J107</t>
-        </is>
-      </c>
-      <c r="B207" t="n">
-        <v>1.13057</v>
-      </c>
-      <c r="C207" t="n">
-        <v>-0.2347045</v>
-      </c>
-    </row>
-    <row r="208">
-      <c r="A208" t="inlineStr">
-        <is>
-          <t>J108</t>
-        </is>
-      </c>
-      <c r="B208" t="n">
-        <v>1.392748</v>
-      </c>
-      <c r="C208" t="n">
-        <v>-0.193035</v>
-      </c>
-    </row>
-    <row r="209">
-      <c r="A209" t="inlineStr">
-        <is>
-          <t>J109</t>
-        </is>
-      </c>
-      <c r="B209" t="n">
-        <v>1.13057</v>
-      </c>
-      <c r="C209" t="n">
-        <v>-0.1614607</v>
-      </c>
-    </row>
-    <row r="210">
-      <c r="A210" t="inlineStr">
-        <is>
-          <t>J110</t>
-        </is>
-      </c>
-      <c r="B210" t="n">
-        <v>1.392748</v>
-      </c>
-      <c r="C210" t="n">
-        <v>-0.1005039</v>
-      </c>
-    </row>
-    <row r="211">
-      <c r="A211" t="inlineStr">
-        <is>
-          <t>J111</t>
-        </is>
-      </c>
-      <c r="B211" t="n">
-        <v>0.9993875</v>
-      </c>
-      <c r="C211" t="n">
-        <v>-0.04953429</v>
-      </c>
-    </row>
-    <row r="212">
-      <c r="A212" t="inlineStr">
-        <is>
-          <t>J112</t>
-        </is>
-      </c>
-      <c r="B212" t="n">
-        <v>1.558962</v>
-      </c>
-      <c r="C212" t="n">
         <v>-0.001051426</v>
-      </c>
-    </row>
-    <row r="213">
-      <c r="A213" t="inlineStr">
-        <is>
-          <t>J113</t>
-        </is>
-      </c>
-      <c r="B213" t="n">
-        <v>1.645486</v>
-      </c>
-      <c r="C213" t="n">
-        <v>-0.0422071</v>
-      </c>
-    </row>
-    <row r="214">
-      <c r="A214" t="inlineStr">
-        <is>
-          <t>J114</t>
-        </is>
-      </c>
-      <c r="B214" t="n">
-        <v>1.645486</v>
-      </c>
-      <c r="C214" t="n">
-        <v>-0.04232669</v>
-      </c>
-    </row>
-    <row r="215">
-      <c r="A215" t="inlineStr">
-        <is>
-          <t>J115</t>
-        </is>
-      </c>
-      <c r="B215" t="n">
-        <v>0.543878</v>
-      </c>
-      <c r="C215" t="n">
-        <v>-0.04221468</v>
-      </c>
-    </row>
-    <row r="216">
-      <c r="A216" t="inlineStr">
-        <is>
-          <t>J116</t>
-        </is>
-      </c>
-      <c r="B216" t="n">
-        <v>0.543878</v>
-      </c>
-      <c r="C216" t="n">
-        <v>-0.04233495</v>
-      </c>
-    </row>
-    <row r="217">
-      <c r="A217" t="inlineStr">
-        <is>
-          <t>J117</t>
-        </is>
-      </c>
-      <c r="B217" t="n">
-        <v>1.645486</v>
-      </c>
-      <c r="C217" t="n">
-        <v>-0.04265762</v>
-      </c>
-    </row>
-    <row r="218">
-      <c r="A218" t="inlineStr">
-        <is>
-          <t>J118</t>
-        </is>
-      </c>
-      <c r="B218" t="n">
-        <v>1.645486</v>
-      </c>
-      <c r="C218" t="n">
-        <v>-0.04277856</v>
-      </c>
-    </row>
-    <row r="219">
-      <c r="A219" t="inlineStr">
-        <is>
-          <t>J119</t>
-        </is>
-      </c>
-      <c r="B219" t="n">
-        <v>1.143095</v>
-      </c>
-      <c r="C219" t="n">
-        <v>-0.0961786</v>
-      </c>
-    </row>
-    <row r="220">
-      <c r="A220" t="inlineStr">
-        <is>
-          <t>J120</t>
-        </is>
-      </c>
-      <c r="B220" t="n">
-        <v>1.143095</v>
-      </c>
-      <c r="C220" t="n">
-        <v>-0.09628114</v>
-      </c>
-    </row>
-    <row r="221">
-      <c r="A221" t="inlineStr">
-        <is>
-          <t>J121</t>
-        </is>
-      </c>
-      <c r="B221" t="n">
-        <v>1.143095</v>
-      </c>
-      <c r="C221" t="n">
-        <v>-0.09712128</v>
-      </c>
-    </row>
-    <row r="222">
-      <c r="A222" t="inlineStr">
-        <is>
-          <t>J122</t>
-        </is>
-      </c>
-      <c r="B222" t="n">
-        <v>1.143095</v>
-      </c>
-      <c r="C222" t="n">
-        <v>-0.09722491</v>
-      </c>
-    </row>
-    <row r="223">
-      <c r="A223" t="inlineStr">
-        <is>
-          <t>J123</t>
-        </is>
-      </c>
-      <c r="B223" t="n">
-        <v>1.122044</v>
-      </c>
-      <c r="C223" t="n">
-        <v>-0.1486705</v>
-      </c>
-    </row>
-    <row r="224">
-      <c r="A224" t="inlineStr">
-        <is>
-          <t>J124</t>
-        </is>
-      </c>
-      <c r="B224" t="n">
-        <v>1.122044</v>
-      </c>
-      <c r="C224" t="n">
-        <v>-0.148756</v>
-      </c>
-    </row>
-    <row r="225">
-      <c r="A225" t="inlineStr">
-        <is>
-          <t>J125</t>
-        </is>
-      </c>
-      <c r="B225" t="n">
-        <v>0.5378758</v>
-      </c>
-      <c r="C225" t="n">
-        <v>-0.1487389</v>
-      </c>
-    </row>
-    <row r="226">
-      <c r="A226" t="inlineStr">
-        <is>
-          <t>J126</t>
-        </is>
-      </c>
-      <c r="B226" t="n">
-        <v>0.5378758</v>
-      </c>
-      <c r="C226" t="n">
-        <v>-0.1488248</v>
-      </c>
-    </row>
-    <row r="227">
-      <c r="A227" t="inlineStr">
-        <is>
-          <t>J127</t>
-        </is>
-      </c>
-      <c r="B227" t="n">
-        <v>1.122044</v>
-      </c>
-      <c r="C227" t="n">
-        <v>-0.15013</v>
-      </c>
-    </row>
-    <row r="228">
-      <c r="A228" t="inlineStr">
-        <is>
-          <t>J128</t>
-        </is>
-      </c>
-      <c r="B228" t="n">
-        <v>1.122044</v>
-      </c>
-      <c r="C228" t="n">
-        <v>-0.1502163</v>
-      </c>
-    </row>
-    <row r="229">
-      <c r="A229" t="inlineStr">
-        <is>
-          <t>J129</t>
-        </is>
-      </c>
-      <c r="B229" t="n">
-        <v>1.143095</v>
-      </c>
-      <c r="C229" t="n">
-        <v>-0.1918997</v>
-      </c>
-    </row>
-    <row r="230">
-      <c r="A230" t="inlineStr">
-        <is>
-          <t>J130</t>
-        </is>
-      </c>
-      <c r="B230" t="n">
-        <v>1.143095</v>
-      </c>
-      <c r="C230" t="n">
-        <v>-0.1919681</v>
-      </c>
-    </row>
-    <row r="231">
-      <c r="A231" t="inlineStr">
-        <is>
-          <t>J131</t>
-        </is>
-      </c>
-      <c r="B231" t="n">
-        <v>1.143095</v>
-      </c>
-      <c r="C231" t="n">
-        <v>-0.1937154</v>
-      </c>
-    </row>
-    <row r="232">
-      <c r="A232" t="inlineStr">
-        <is>
-          <t>J132</t>
-        </is>
-      </c>
-      <c r="B232" t="n">
-        <v>1.143095</v>
-      </c>
-      <c r="C232" t="n">
-        <v>-0.1937844</v>
-      </c>
-    </row>
-    <row r="233">
-      <c r="A233" t="inlineStr">
-        <is>
-          <t>J133</t>
-        </is>
-      </c>
-      <c r="B233" t="n">
-        <v>1.121005</v>
-      </c>
-      <c r="C233" t="n">
-        <v>-0.2217938</v>
-      </c>
-    </row>
-    <row r="234">
-      <c r="A234" t="inlineStr">
-        <is>
-          <t>J134</t>
-        </is>
-      </c>
-      <c r="B234" t="n">
-        <v>1.121005</v>
-      </c>
-      <c r="C234" t="n">
-        <v>-0.2218451</v>
-      </c>
-    </row>
-    <row r="235">
-      <c r="A235" t="inlineStr">
-        <is>
-          <t>J135</t>
-        </is>
-      </c>
-      <c r="B235" t="n">
-        <v>0.5375774</v>
-      </c>
-      <c r="C235" t="n">
-        <v>-0.2216653</v>
-      </c>
-    </row>
-    <row r="236">
-      <c r="A236" t="inlineStr">
-        <is>
-          <t>J136</t>
-        </is>
-      </c>
-      <c r="B236" t="n">
-        <v>0.5375774</v>
-      </c>
-      <c r="C236" t="n">
-        <v>-0.2217169</v>
-      </c>
-    </row>
-    <row r="237">
-      <c r="A237" t="inlineStr">
-        <is>
-          <t>J137</t>
-        </is>
-      </c>
-      <c r="B237" t="n">
-        <v>1.121005</v>
-      </c>
-      <c r="C237" t="n">
-        <v>-0.223838</v>
-      </c>
-    </row>
-    <row r="238">
-      <c r="A238" t="inlineStr">
-        <is>
-          <t>J138</t>
-        </is>
-      </c>
-      <c r="B238" t="n">
-        <v>1.121005</v>
-      </c>
-      <c r="C238" t="n">
-        <v>-0.2238898</v>
-      </c>
-    </row>
-    <row r="239">
-      <c r="A239" t="inlineStr">
-        <is>
-          <t>J139</t>
-        </is>
-      </c>
-      <c r="B239" t="n">
-        <v>1.140717</v>
-      </c>
-      <c r="C239" t="n">
-        <v>-0.2445047</v>
-      </c>
-    </row>
-    <row r="240">
-      <c r="A240" t="inlineStr">
-        <is>
-          <t>J140</t>
-        </is>
-      </c>
-      <c r="B240" t="n">
-        <v>1.140717</v>
-      </c>
-      <c r="C240" t="n">
-        <v>-0.2445389</v>
-      </c>
-    </row>
-    <row r="241">
-      <c r="A241" t="inlineStr">
-        <is>
-          <t>J141</t>
-        </is>
-      </c>
-      <c r="B241" t="n">
-        <v>1.140717</v>
-      </c>
-      <c r="C241" t="n">
-        <v>-0.246701</v>
-      </c>
-    </row>
-    <row r="242">
-      <c r="A242" t="inlineStr">
-        <is>
-          <t>J142</t>
-        </is>
-      </c>
-      <c r="B242" t="n">
-        <v>1.140717</v>
-      </c>
-      <c r="C242" t="n">
-        <v>-0.2467355</v>
-      </c>
-    </row>
-    <row r="243">
-      <c r="A243" t="inlineStr">
-        <is>
-          <t>J143</t>
-        </is>
-      </c>
-      <c r="B243" t="n">
-        <v>1.118626</v>
-      </c>
-      <c r="C243" t="n">
-        <v>-0.2568271</v>
-      </c>
-    </row>
-    <row r="244">
-      <c r="A244" t="inlineStr">
-        <is>
-          <t>J144</t>
-        </is>
-      </c>
-      <c r="B244" t="n">
-        <v>1.137654</v>
-      </c>
-      <c r="C244" t="n">
-        <v>-0.2619537</v>
-      </c>
-    </row>
-    <row r="245">
-      <c r="A245" t="inlineStr">
-        <is>
-          <t>J145</t>
-        </is>
-      </c>
-      <c r="B245" t="n">
-        <v>1.118626</v>
-      </c>
-      <c r="C245" t="n">
-        <v>-0.2568442</v>
-      </c>
-    </row>
-    <row r="246">
-      <c r="A246" t="inlineStr">
-        <is>
-          <t>J146</t>
-        </is>
-      </c>
-      <c r="B246" t="n">
-        <v>0.5368946999999999</v>
-      </c>
-      <c r="C246" t="n">
-        <v>-0.2557032</v>
-      </c>
-    </row>
-    <row r="247">
-      <c r="A247" t="inlineStr">
-        <is>
-          <t>J147</t>
-        </is>
-      </c>
-      <c r="B247" t="n">
-        <v>0.5368946999999999</v>
-      </c>
-      <c r="C247" t="n">
-        <v>-0.2557204</v>
-      </c>
-    </row>
-    <row r="248">
-      <c r="A248" t="inlineStr">
-        <is>
-          <t>J148</t>
-        </is>
-      </c>
-      <c r="B248" t="n">
-        <v>1.118626</v>
-      </c>
-      <c r="C248" t="n">
-        <v>-0.2591235</v>
-      </c>
-    </row>
-    <row r="249">
-      <c r="A249" t="inlineStr">
-        <is>
-          <t>J149</t>
-        </is>
-      </c>
-      <c r="B249" t="n">
-        <v>1.137654</v>
-      </c>
-      <c r="C249" t="n">
-        <v>-0.2642762</v>
-      </c>
-    </row>
-    <row r="250">
-      <c r="A250" t="inlineStr">
-        <is>
-          <t>J150</t>
-        </is>
-      </c>
-      <c r="B250" t="n">
-        <v>1.118626</v>
-      </c>
-      <c r="C250" t="n">
-        <v>-0.2591407</v>
-      </c>
-    </row>
-    <row r="251">
-      <c r="A251" t="inlineStr">
-        <is>
-          <t>~1</t>
-        </is>
-      </c>
-      <c r="B251" t="n">
-        <v>0.6627362999999999</v>
-      </c>
-      <c r="C251" t="n">
-        <v>-0.09550044000000001</v>
-      </c>
-    </row>
-    <row r="252">
-      <c r="A252" t="inlineStr">
-        <is>
-          <t>~10</t>
-        </is>
-      </c>
-      <c r="B252" t="n">
-        <v>0.7989098</v>
-      </c>
-      <c r="C252" t="n">
-        <v>-0.2259379</v>
-      </c>
-    </row>
-    <row r="253">
-      <c r="A253" t="inlineStr">
-        <is>
-          <t>~11</t>
-        </is>
-      </c>
-      <c r="B253" t="n">
-        <v>0.8514818</v>
-      </c>
-      <c r="C253" t="n">
-        <v>-0.2586118</v>
-      </c>
-    </row>
-    <row r="254">
-      <c r="A254" t="inlineStr">
-        <is>
-          <t>~12</t>
-        </is>
-      </c>
-      <c r="B254" t="n">
-        <v>0.8514818</v>
-      </c>
-      <c r="C254" t="n">
-        <v>-0.2491572</v>
-      </c>
-    </row>
-    <row r="255">
-      <c r="A255" t="inlineStr">
-        <is>
-          <t>~13</t>
-        </is>
-      </c>
-      <c r="B255" t="n">
-        <v>0.8514818</v>
-      </c>
-      <c r="C255" t="n">
-        <v>-0.2656766</v>
-      </c>
-    </row>
-    <row r="256">
-      <c r="A256" t="inlineStr">
-        <is>
-          <t>~14</t>
-        </is>
-      </c>
-      <c r="B256" t="n">
-        <v>0.8514818</v>
-      </c>
-      <c r="C256" t="n">
-        <v>-0.2598635</v>
-      </c>
-    </row>
-    <row r="257">
-      <c r="A257" t="inlineStr">
-        <is>
-          <t>~15</t>
-        </is>
-      </c>
-      <c r="B257" t="n">
-        <v>0.8514818</v>
-      </c>
-      <c r="C257" t="n">
-        <v>-0.2598474</v>
-      </c>
-    </row>
-    <row r="258">
-      <c r="A258" t="inlineStr">
-        <is>
-          <t>~16</t>
-        </is>
-      </c>
-      <c r="B258" t="n">
-        <v>0.8514818</v>
-      </c>
-      <c r="C258" t="n">
-        <v>-0.2656754</v>
-      </c>
-    </row>
-    <row r="259">
-      <c r="A259" t="inlineStr">
-        <is>
-          <t>~17</t>
-        </is>
-      </c>
-      <c r="B259" t="n">
-        <v>0.8514818</v>
-      </c>
-      <c r="C259" t="n">
-        <v>-0.2491239</v>
-      </c>
-    </row>
-    <row r="260">
-      <c r="A260" t="inlineStr">
-        <is>
-          <t>~18</t>
-        </is>
-      </c>
-      <c r="B260" t="n">
-        <v>0.8514818</v>
-      </c>
-      <c r="C260" t="n">
-        <v>-0.2585934</v>
-      </c>
-    </row>
-    <row r="261">
-      <c r="A261" t="inlineStr">
-        <is>
-          <t>~19</t>
-        </is>
-      </c>
-      <c r="B261" t="n">
-        <v>0.7989098</v>
-      </c>
-      <c r="C261" t="n">
-        <v>-0.2258873</v>
-      </c>
-    </row>
-    <row r="262">
-      <c r="A262" t="inlineStr">
-        <is>
-          <t>~2</t>
-        </is>
-      </c>
-      <c r="B262" t="n">
-        <v>0.6627362999999999</v>
-      </c>
-      <c r="C262" t="n">
-        <v>-0.04819026</v>
-      </c>
-    </row>
-    <row r="263">
-      <c r="A263" t="inlineStr">
-        <is>
-          <t>~20</t>
-        </is>
-      </c>
-      <c r="B263" t="n">
-        <v>0.7989098</v>
-      </c>
-      <c r="C263" t="n">
-        <v>-0.2465432</v>
-      </c>
-    </row>
-    <row r="264">
-      <c r="A264" t="inlineStr">
-        <is>
-          <t>~21</t>
-        </is>
-      </c>
-      <c r="B264" t="n">
-        <v>0.7989098</v>
-      </c>
-      <c r="C264" t="n">
-        <v>-0.1954843</v>
-      </c>
-    </row>
-    <row r="265">
-      <c r="A265" t="inlineStr">
-        <is>
-          <t>~22</t>
-        </is>
-      </c>
-      <c r="B265" t="n">
-        <v>0.7989098</v>
-      </c>
-      <c r="C265" t="n">
-        <v>-0.2217314</v>
-      </c>
-    </row>
-    <row r="266">
-      <c r="A266" t="inlineStr">
-        <is>
-          <t>~23</t>
-        </is>
-      </c>
-      <c r="B266" t="n">
-        <v>0.7299846</v>
-      </c>
-      <c r="C266" t="n">
-        <v>-0.1538619</v>
-      </c>
-    </row>
-    <row r="267">
-      <c r="A267" t="inlineStr">
-        <is>
-          <t>~24</t>
-        </is>
-      </c>
-      <c r="B267" t="n">
-        <v>0.7299846</v>
-      </c>
-      <c r="C267" t="n">
-        <v>-0.1896441</v>
-      </c>
-    </row>
-    <row r="268">
-      <c r="A268" t="inlineStr">
-        <is>
-          <t>~25</t>
-        </is>
-      </c>
-      <c r="B268" t="n">
-        <v>0.7299846</v>
-      </c>
-      <c r="C268" t="n">
-        <v>-0.1047024</v>
-      </c>
-    </row>
-    <row r="269">
-      <c r="A269" t="inlineStr">
-        <is>
-          <t>~26</t>
-        </is>
-      </c>
-      <c r="B269" t="n">
-        <v>0.7299846</v>
-      </c>
-      <c r="C269" t="n">
-        <v>-0.1462378</v>
-      </c>
-    </row>
-    <row r="270">
-      <c r="A270" t="inlineStr">
-        <is>
-          <t>~27</t>
-        </is>
-      </c>
-      <c r="B270" t="n">
-        <v>0.6627362999999999</v>
-      </c>
-      <c r="C270" t="n">
-        <v>-0.04807076</v>
-      </c>
-    </row>
-    <row r="271">
-      <c r="A271" t="inlineStr">
-        <is>
-          <t>~28</t>
-        </is>
-      </c>
-      <c r="B271" t="n">
-        <v>0.6627362999999999</v>
-      </c>
-      <c r="C271" t="n">
-        <v>-0.09539539</v>
-      </c>
-    </row>
-    <row r="272">
-      <c r="A272" t="inlineStr">
-        <is>
-          <t>~29</t>
-        </is>
-      </c>
-      <c r="B272" t="n">
-        <v>0.6627362999999999</v>
-      </c>
-      <c r="C272" t="n">
-        <v>-0.09452346</v>
-      </c>
-    </row>
-    <row r="273">
-      <c r="A273" t="inlineStr">
-        <is>
-          <t>~3</t>
-        </is>
-      </c>
-      <c r="B273" t="n">
-        <v>0.7299846</v>
-      </c>
-      <c r="C273" t="n">
-        <v>-0.1463255</v>
-      </c>
-    </row>
-    <row r="274">
-      <c r="A274" t="inlineStr">
-        <is>
-          <t>~30</t>
-        </is>
-      </c>
-      <c r="B274" t="n">
-        <v>0.6627362999999999</v>
-      </c>
-      <c r="C274" t="n">
-        <v>-0.04768397</v>
-      </c>
-    </row>
-    <row r="275">
-      <c r="A275" t="inlineStr">
-        <is>
-          <t>~31</t>
-        </is>
-      </c>
-      <c r="B275" t="n">
-        <v>0.7299846</v>
-      </c>
-      <c r="C275" t="n">
-        <v>-0.1449014</v>
-      </c>
-    </row>
-    <row r="276">
-      <c r="A276" t="inlineStr">
-        <is>
-          <t>~32</t>
-        </is>
-      </c>
-      <c r="B276" t="n">
-        <v>0.7299846</v>
-      </c>
-      <c r="C276" t="n">
-        <v>-0.1037372</v>
-      </c>
-    </row>
-    <row r="277">
-      <c r="A277" t="inlineStr">
-        <is>
-          <t>~33</t>
-        </is>
-      </c>
-      <c r="B277" t="n">
-        <v>0.7299846</v>
-      </c>
-      <c r="C277" t="n">
-        <v>-0.1879235</v>
-      </c>
-    </row>
-    <row r="278">
-      <c r="A278" t="inlineStr">
-        <is>
-          <t>~34</t>
-        </is>
-      </c>
-      <c r="B278" t="n">
-        <v>0.7299846</v>
-      </c>
-      <c r="C278" t="n">
-        <v>-0.1524557</v>
-      </c>
-    </row>
-    <row r="279">
-      <c r="A279" t="inlineStr">
-        <is>
-          <t>~35</t>
-        </is>
-      </c>
-      <c r="B279" t="n">
-        <v>0.7989098</v>
-      </c>
-      <c r="C279" t="n">
-        <v>-0.2197566</v>
-      </c>
-    </row>
-    <row r="280">
-      <c r="A280" t="inlineStr">
-        <is>
-          <t>~36</t>
-        </is>
-      </c>
-      <c r="B280" t="n">
-        <v>0.7989098</v>
-      </c>
-      <c r="C280" t="n">
-        <v>-0.1937134</v>
-      </c>
-    </row>
-    <row r="281">
-      <c r="A281" t="inlineStr">
-        <is>
-          <t>~37</t>
-        </is>
-      </c>
-      <c r="B281" t="n">
-        <v>0.7989098</v>
-      </c>
-      <c r="C281" t="n">
-        <v>-0.2443619</v>
-      </c>
-    </row>
-    <row r="282">
-      <c r="A282" t="inlineStr">
-        <is>
-          <t>~38</t>
-        </is>
-      </c>
-      <c r="B282" t="n">
-        <v>0.7989098</v>
-      </c>
-      <c r="C282" t="n">
-        <v>-0.2238784</v>
-      </c>
-    </row>
-    <row r="283">
-      <c r="A283" t="inlineStr">
-        <is>
-          <t>~39</t>
-        </is>
-      </c>
-      <c r="B283" t="n">
-        <v>0.8514818</v>
-      </c>
-      <c r="C283" t="n">
-        <v>-0.2563195</v>
-      </c>
-    </row>
-    <row r="284">
-      <c r="A284" t="inlineStr">
-        <is>
-          <t>~4</t>
-        </is>
-      </c>
-      <c r="B284" t="n">
-        <v>0.7299846</v>
-      </c>
-      <c r="C284" t="n">
-        <v>-0.1048047</v>
-      </c>
-    </row>
-    <row r="285">
-      <c r="A285" t="inlineStr">
-        <is>
-          <t>~40</t>
-        </is>
-      </c>
-      <c r="B285" t="n">
-        <v>0.8514818</v>
-      </c>
-      <c r="C285" t="n">
-        <v>-0.2469212</v>
-      </c>
-    </row>
-    <row r="286">
-      <c r="A286" t="inlineStr">
-        <is>
-          <t>~41</t>
-        </is>
-      </c>
-      <c r="B286" t="n">
-        <v>0.8514818</v>
-      </c>
-      <c r="C286" t="n">
-        <v>-0.2633259</v>
-      </c>
-    </row>
-    <row r="287">
-      <c r="A287" t="inlineStr">
-        <is>
-          <t>~42</t>
-        </is>
-      </c>
-      <c r="B287" t="n">
-        <v>0.8514818</v>
-      </c>
-      <c r="C287" t="n">
-        <v>-0.2575622</v>
-      </c>
-    </row>
-    <row r="288">
-      <c r="A288" t="inlineStr">
-        <is>
-          <t>~43</t>
-        </is>
-      </c>
-      <c r="B288" t="n">
-        <v>0.8514818</v>
-      </c>
-      <c r="C288" t="n">
-        <v>-0.2575462</v>
-      </c>
-    </row>
-    <row r="289">
-      <c r="A289" t="inlineStr">
-        <is>
-          <t>~44</t>
-        </is>
-      </c>
-      <c r="B289" t="n">
-        <v>0.8514818</v>
-      </c>
-      <c r="C289" t="n">
-        <v>-0.2633248</v>
-      </c>
-    </row>
-    <row r="290">
-      <c r="A290" t="inlineStr">
-        <is>
-          <t>~45</t>
-        </is>
-      </c>
-      <c r="B290" t="n">
-        <v>0.8514818</v>
-      </c>
-      <c r="C290" t="n">
-        <v>-0.2468881</v>
-      </c>
-    </row>
-    <row r="291">
-      <c r="A291" t="inlineStr">
-        <is>
-          <t>~46</t>
-        </is>
-      </c>
-      <c r="B291" t="n">
-        <v>0.8514818</v>
-      </c>
-      <c r="C291" t="n">
-        <v>-0.2563012</v>
-      </c>
-    </row>
-    <row r="292">
-      <c r="A292" t="inlineStr">
-        <is>
-          <t>~47</t>
-        </is>
-      </c>
-      <c r="B292" t="n">
-        <v>0.7989098</v>
-      </c>
-      <c r="C292" t="n">
-        <v>-0.2238282</v>
-      </c>
-    </row>
-    <row r="293">
-      <c r="A293" t="inlineStr">
-        <is>
-          <t>~48</t>
-        </is>
-      </c>
-      <c r="B293" t="n">
-        <v>0.7989098</v>
-      </c>
-      <c r="C293" t="n">
-        <v>-0.2443265</v>
-      </c>
-    </row>
-    <row r="294">
-      <c r="A294" t="inlineStr">
-        <is>
-          <t>~49</t>
-        </is>
-      </c>
-      <c r="B294" t="n">
-        <v>0.7989098</v>
-      </c>
-      <c r="C294" t="n">
-        <v>-0.1936462</v>
-      </c>
-    </row>
-    <row r="295">
-      <c r="A295" t="inlineStr">
-        <is>
-          <t>~5</t>
-        </is>
-      </c>
-      <c r="B295" t="n">
-        <v>0.7299846</v>
-      </c>
-      <c r="C295" t="n">
-        <v>-0.1897144</v>
-      </c>
-    </row>
-    <row r="296">
-      <c r="A296" t="inlineStr">
-        <is>
-          <t>~50</t>
-        </is>
-      </c>
-      <c r="B296" t="n">
-        <v>0.7989098</v>
-      </c>
-      <c r="C296" t="n">
-        <v>-0.2197041</v>
-      </c>
-    </row>
-    <row r="297">
-      <c r="A297" t="inlineStr">
-        <is>
-          <t>~51</t>
-        </is>
-      </c>
-      <c r="B297" t="n">
-        <v>0.7299846</v>
-      </c>
-      <c r="C297" t="n">
-        <v>-0.1523715</v>
-      </c>
-    </row>
-    <row r="298">
-      <c r="A298" t="inlineStr">
-        <is>
-          <t>~52</t>
-        </is>
-      </c>
-      <c r="B298" t="n">
-        <v>0.7299846</v>
-      </c>
-      <c r="C298" t="n">
-        <v>-0.1878538</v>
-      </c>
-    </row>
-    <row r="299">
-      <c r="A299" t="inlineStr">
-        <is>
-          <t>~53</t>
-        </is>
-      </c>
-      <c r="B299" t="n">
-        <v>0.7299846</v>
-      </c>
-      <c r="C299" t="n">
-        <v>-0.1036359</v>
-      </c>
-    </row>
-    <row r="300">
-      <c r="A300" t="inlineStr">
-        <is>
-          <t>~54</t>
-        </is>
-      </c>
-      <c r="B300" t="n">
-        <v>0.7299846</v>
-      </c>
-      <c r="C300" t="n">
-        <v>-0.1448146</v>
-      </c>
-    </row>
-    <row r="301">
-      <c r="A301" t="inlineStr">
-        <is>
-          <t>~55</t>
-        </is>
-      </c>
-      <c r="B301" t="n">
-        <v>0.6627362999999999</v>
-      </c>
-      <c r="C301" t="n">
-        <v>-0.0475658</v>
-      </c>
-    </row>
-    <row r="302">
-      <c r="A302" t="inlineStr">
-        <is>
-          <t>~56</t>
-        </is>
-      </c>
-      <c r="B302" t="n">
-        <v>0.6627362999999999</v>
-      </c>
-      <c r="C302" t="n">
-        <v>-0.09441948999999999</v>
-      </c>
-    </row>
-    <row r="303">
-      <c r="A303" t="inlineStr">
-        <is>
-          <t>~6</t>
-        </is>
-      </c>
-      <c r="B303" t="n">
-        <v>0.7299846</v>
-      </c>
-      <c r="C303" t="n">
-        <v>-0.1539469</v>
-      </c>
-    </row>
-    <row r="304">
-      <c r="A304" t="inlineStr">
-        <is>
-          <t>~7</t>
-        </is>
-      </c>
-      <c r="B304" t="n">
-        <v>0.7989098</v>
-      </c>
-      <c r="C304" t="n">
-        <v>-0.2217844</v>
-      </c>
-    </row>
-    <row r="305">
-      <c r="A305" t="inlineStr">
-        <is>
-          <t>~8</t>
-        </is>
-      </c>
-      <c r="B305" t="n">
-        <v>0.7989098</v>
-      </c>
-      <c r="C305" t="n">
-        <v>-0.1955522</v>
-      </c>
-    </row>
-    <row r="306">
-      <c r="A306" t="inlineStr">
-        <is>
-          <t>~9</t>
-        </is>
-      </c>
-      <c r="B306" t="n">
-        <v>0.7989098</v>
-      </c>
-      <c r="C306" t="n">
-        <v>-0.2465789</v>
       </c>
     </row>
   </sheetData>

--- a/example/01_period_results.xlsx
+++ b/example/01_period_results.xlsx
@@ -1,18 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Period Calculation" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Chord_Top-X" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Chord_Bot-X" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Bracing_Top-X" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Chord_Bot-Y" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="StructZdir-Z" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="Period Calculation" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Chord_Bot-X" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Bracing_Top-X" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Chord_Bot-Y" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="StructZdir-Z" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -430,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -468,7 +467,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Chord_Top</t>
+          <t>Chord_Bot</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -477,19 +476,19 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>1.1672</v>
+        <v>1.1667</v>
       </c>
       <c r="D2" t="n">
-        <v>12.1912</v>
+        <v>14.6008</v>
       </c>
       <c r="E2" t="n">
-        <v>4.1272</v>
+        <v>4.9388</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Chord_Bot</t>
+          <t>Bracing_Top</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -498,76 +497,55 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>1.1667</v>
+        <v>1.167</v>
       </c>
       <c r="D3" t="n">
-        <v>14.6008</v>
+        <v>6.8685</v>
       </c>
       <c r="E3" t="n">
-        <v>4.9388</v>
+        <v>2.3245</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Bracing_Top</t>
+          <t>Chord_Bot</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>1.167</v>
+        <v>2.1007</v>
       </c>
       <c r="D4" t="n">
-        <v>6.8685</v>
+        <v>35.668</v>
       </c>
       <c r="E4" t="n">
-        <v>2.3245</v>
+        <v>39.1137</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Chord_Bot</t>
+          <t>StructZdir</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>Z</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2.1007</v>
+        <v>0.9319</v>
       </c>
       <c r="D5" t="n">
-        <v>35.668</v>
+        <v>6.9467</v>
       </c>
       <c r="E5" t="n">
-        <v>39.1137</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>StructZdir</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Z</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0.9147999999999999</v>
-      </c>
-      <c r="D6" t="n">
-        <v>6.1473</v>
-      </c>
-      <c r="E6" t="n">
-        <v>1.2782</v>
+        <v>1.4991</v>
       </c>
     </row>
   </sheetData>
@@ -576,439 +554,6 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C32"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Node</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Mass</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Displacement</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr"/>
-      <c r="B2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C2" t="inlineStr"/>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>J113</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>1.645486</v>
-      </c>
-      <c r="C3" t="n">
-        <v>-0.341047</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>J114</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>1.645486</v>
-      </c>
-      <c r="C4" t="n">
-        <v>-0.3374661</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>J117</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>1.645486</v>
-      </c>
-      <c r="C5" t="n">
-        <v>-0.3411465</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>J118</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>1.645486</v>
-      </c>
-      <c r="C6" t="n">
-        <v>-0.3375656</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>J119</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>1.143095</v>
-      </c>
-      <c r="C7" t="n">
-        <v>-0.340158</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>J120</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>1.143095</v>
-      </c>
-      <c r="C8" t="n">
-        <v>-0.3367854</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>J121</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>1.143095</v>
-      </c>
-      <c r="C9" t="n">
-        <v>-0.3402496</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>J122</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>1.143095</v>
-      </c>
-      <c r="C10" t="n">
-        <v>-0.336877</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>J123</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>1.122044</v>
-      </c>
-      <c r="C11" t="n">
-        <v>-0.3391731</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>J124</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>1.122044</v>
-      </c>
-      <c r="C12" t="n">
-        <v>-0.3384125</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>J127</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>1.122044</v>
-      </c>
-      <c r="C13" t="n">
-        <v>-0.3392641</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>J128</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>1.122044</v>
-      </c>
-      <c r="C14" t="n">
-        <v>-0.3385036</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>J129</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>1.143095</v>
-      </c>
-      <c r="C15" t="n">
-        <v>-0.3384836</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>J130</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>1.143095</v>
-      </c>
-      <c r="C16" t="n">
-        <v>-0.3391821</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>J131</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>1.143095</v>
-      </c>
-      <c r="C17" t="n">
-        <v>-0.3385667</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>J132</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>1.143095</v>
-      </c>
-      <c r="C18" t="n">
-        <v>-0.3392651</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>J133</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>1.121005</v>
-      </c>
-      <c r="C19" t="n">
-        <v>-0.3378228</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>J134</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>1.121005</v>
-      </c>
-      <c r="C20" t="n">
-        <v>-0.3387642</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>J137</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>1.121005</v>
-      </c>
-      <c r="C21" t="n">
-        <v>-0.3379037</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>J138</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>1.121005</v>
-      </c>
-      <c r="C22" t="n">
-        <v>-0.3388451</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>J139</t>
-        </is>
-      </c>
-      <c r="B23" t="n">
-        <v>1.140717</v>
-      </c>
-      <c r="C23" t="n">
-        <v>-0.3376186</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>J140</t>
-        </is>
-      </c>
-      <c r="B24" t="n">
-        <v>1.140717</v>
-      </c>
-      <c r="C24" t="n">
-        <v>-0.3384801</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>J141</t>
-        </is>
-      </c>
-      <c r="B25" t="n">
-        <v>1.140717</v>
-      </c>
-      <c r="C25" t="n">
-        <v>-0.3376926</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>J142</t>
-        </is>
-      </c>
-      <c r="B26" t="n">
-        <v>1.140717</v>
-      </c>
-      <c r="C26" t="n">
-        <v>-0.3385541</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>J143</t>
-        </is>
-      </c>
-      <c r="B27" t="n">
-        <v>1.118626</v>
-      </c>
-      <c r="C27" t="n">
-        <v>-0.337425</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>J144</t>
-        </is>
-      </c>
-      <c r="B28" t="n">
-        <v>1.137654</v>
-      </c>
-      <c r="C28" t="n">
-        <v>-0.3377972</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>J145</t>
-        </is>
-      </c>
-      <c r="B29" t="n">
-        <v>1.118626</v>
-      </c>
-      <c r="C29" t="n">
-        <v>-0.338084</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>J148</t>
-        </is>
-      </c>
-      <c r="B30" t="n">
-        <v>1.118626</v>
-      </c>
-      <c r="C30" t="n">
-        <v>-0.3374991</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>J149</t>
-        </is>
-      </c>
-      <c r="B31" t="n">
-        <v>1.137654</v>
-      </c>
-      <c r="C31" t="n">
-        <v>-0.3378678</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>J150</t>
-        </is>
-      </c>
-      <c r="B32" t="n">
-        <v>1.118626</v>
-      </c>
-      <c r="C32" t="n">
-        <v>-0.338158</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1493,7 +1038,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1815,6 +1360,491 @@
       </c>
       <c r="C24" t="n">
         <v>-0.3378678</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C36"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Node</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Mass</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Displacement</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr"/>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>J001</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>1.558962</v>
+      </c>
+      <c r="C3" t="n">
+        <v>-0.03092895</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>J002</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.9993874</v>
+      </c>
+      <c r="C4" t="n">
+        <v>-0.2395548</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>J003</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>1.392748</v>
+      </c>
+      <c r="C5" t="n">
+        <v>-0.5270531000000001</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>J004</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>1.13057</v>
+      </c>
+      <c r="C6" t="n">
+        <v>-0.7857614000000001</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>J005</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>1.392748</v>
+      </c>
+      <c r="C7" t="n">
+        <v>-0.9878059</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>J006</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>1.13057</v>
+      </c>
+      <c r="C8" t="n">
+        <v>-1.167806</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>J007</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>1.392748</v>
+      </c>
+      <c r="C9" t="n">
+        <v>-1.277146</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>J008</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>1.13057</v>
+      </c>
+      <c r="C10" t="n">
+        <v>-1.366143</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>J009</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>1.392748</v>
+      </c>
+      <c r="C11" t="n">
+        <v>-1.376889</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>J010</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>1.13057</v>
+      </c>
+      <c r="C12" t="n">
+        <v>-1.367369</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>J011</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>1.392748</v>
+      </c>
+      <c r="C13" t="n">
+        <v>-1.279604</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>J012</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>1.13057</v>
+      </c>
+      <c r="C14" t="n">
+        <v>-1.171502</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>J013</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>1.392748</v>
+      </c>
+      <c r="C15" t="n">
+        <v>-0.9927586</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>J014</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>1.13057</v>
+      </c>
+      <c r="C16" t="n">
+        <v>-0.7919843</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>J015</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>1.392748</v>
+      </c>
+      <c r="C17" t="n">
+        <v>-0.5345722000000001</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>J016</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>0.9993874</v>
+      </c>
+      <c r="C18" t="n">
+        <v>-0.2484018</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>J017</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>1.558962</v>
+      </c>
+      <c r="C19" t="n">
+        <v>-0.04076035</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>J096</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>1.558962</v>
+      </c>
+      <c r="C20" t="n">
+        <v>-0.03093202</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>J097</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>0.9993874</v>
+      </c>
+      <c r="C21" t="n">
+        <v>-0.2395632</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>J098</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>1.392748</v>
+      </c>
+      <c r="C22" t="n">
+        <v>-0.5270625</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>J099</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>1.13057</v>
+      </c>
+      <c r="C23" t="n">
+        <v>-0.7857712</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>J100</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>1.392748</v>
+      </c>
+      <c r="C24" t="n">
+        <v>-0.9878153</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>J101</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>1.13057</v>
+      </c>
+      <c r="C25" t="n">
+        <v>-1.167816</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>J102</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>1.392748</v>
+      </c>
+      <c r="C26" t="n">
+        <v>-1.277155</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>J103</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>1.13057</v>
+      </c>
+      <c r="C27" t="n">
+        <v>-1.366153</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>J104</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>1.392748</v>
+      </c>
+      <c r="C28" t="n">
+        <v>-1.376899</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>J105</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>1.13057</v>
+      </c>
+      <c r="C29" t="n">
+        <v>-1.367378</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>J106</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>1.392748</v>
+      </c>
+      <c r="C30" t="n">
+        <v>-1.279613</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>J107</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>1.13057</v>
+      </c>
+      <c r="C31" t="n">
+        <v>-1.171512</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>J108</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>1.392748</v>
+      </c>
+      <c r="C32" t="n">
+        <v>-0.992768</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>J109</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>1.13057</v>
+      </c>
+      <c r="C33" t="n">
+        <v>-0.7919941</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>J110</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>1.392748</v>
+      </c>
+      <c r="C34" t="n">
+        <v>-0.5345817</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>J111</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>0.9993875</v>
+      </c>
+      <c r="C35" t="n">
+        <v>-0.2484102</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>J112</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>1.558962</v>
+      </c>
+      <c r="C36" t="n">
+        <v>-0.04076342</v>
       </c>
     </row>
   </sheetData>
@@ -1870,7 +1900,7 @@
         <v>1.558962</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.03092895</v>
+        <v>-0.0009030238</v>
       </c>
     </row>
     <row r="4">
@@ -1883,7 +1913,7 @@
         <v>0.9993874</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.2395548</v>
+        <v>-0.0487894</v>
       </c>
     </row>
     <row r="5">
@@ -1896,7 +1926,7 @@
         <v>1.392748</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.5270531000000001</v>
+        <v>-0.09936991000000001</v>
       </c>
     </row>
     <row r="6">
@@ -1909,7 +1939,7 @@
         <v>1.13057</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.7857614000000001</v>
+        <v>-0.1596747</v>
       </c>
     </row>
     <row r="7">
@@ -1922,7 +1952,7 @@
         <v>1.392748</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.9878059</v>
+        <v>-0.1911447</v>
       </c>
     </row>
     <row r="8">
@@ -1935,7 +1965,7 @@
         <v>1.13057</v>
       </c>
       <c r="C8" t="n">
-        <v>-1.167806</v>
+        <v>-0.2324022</v>
       </c>
     </row>
     <row r="9">
@@ -1948,7 +1978,7 @@
         <v>1.392748</v>
       </c>
       <c r="C9" t="n">
-        <v>-1.277146</v>
+        <v>-0.2459491</v>
       </c>
     </row>
     <row r="10">
@@ -1961,7 +1991,7 @@
         <v>1.13057</v>
       </c>
       <c r="C10" t="n">
-        <v>-1.366143</v>
+        <v>-0.2686723</v>
       </c>
     </row>
     <row r="11">
@@ -1974,7 +2004,7 @@
         <v>1.392748</v>
       </c>
       <c r="C11" t="n">
-        <v>-1.376889</v>
+        <v>-0.2636308</v>
       </c>
     </row>
     <row r="12">
@@ -1987,7 +2017,7 @@
         <v>1.13057</v>
       </c>
       <c r="C12" t="n">
-        <v>-1.367369</v>
+        <v>-0.2686894</v>
       </c>
     </row>
     <row r="13">
@@ -2000,7 +2030,7 @@
         <v>1.392748</v>
       </c>
       <c r="C13" t="n">
-        <v>-1.279604</v>
+        <v>-0.2459834</v>
       </c>
     </row>
     <row r="14">
@@ -2013,7 +2043,7 @@
         <v>1.13057</v>
       </c>
       <c r="C14" t="n">
-        <v>-1.171502</v>
+        <v>-0.2324535</v>
       </c>
     </row>
     <row r="15">
@@ -2026,7 +2056,7 @@
         <v>1.392748</v>
       </c>
       <c r="C15" t="n">
-        <v>-0.9927586</v>
+        <v>-0.1912131</v>
       </c>
     </row>
     <row r="16">
@@ -2039,7 +2069,7 @@
         <v>1.13057</v>
       </c>
       <c r="C16" t="n">
-        <v>-0.7919843</v>
+        <v>-0.1597602</v>
       </c>
     </row>
     <row r="17">
@@ -2052,7 +2082,7 @@
         <v>1.392748</v>
       </c>
       <c r="C17" t="n">
-        <v>-0.5345722000000001</v>
+        <v>-0.09947246</v>
       </c>
     </row>
     <row r="18">
@@ -2065,7 +2095,7 @@
         <v>0.9993874</v>
       </c>
       <c r="C18" t="n">
-        <v>-0.2484018</v>
+        <v>-0.04890899</v>
       </c>
     </row>
     <row r="19">
@@ -2078,7 +2108,7 @@
         <v>1.558962</v>
       </c>
       <c r="C19" t="n">
-        <v>-0.04076035</v>
+        <v>-0.001034954</v>
       </c>
     </row>
     <row r="20">
@@ -2091,7 +2121,7 @@
         <v>1.558962</v>
       </c>
       <c r="C20" t="n">
-        <v>-0.03093202</v>
+        <v>-0.000917914</v>
       </c>
     </row>
     <row r="21">
@@ -2104,7 +2134,7 @@
         <v>0.9993874</v>
       </c>
       <c r="C21" t="n">
-        <v>-0.2395632</v>
+        <v>-0.04941336</v>
       </c>
     </row>
     <row r="22">
@@ -2117,7 +2147,7 @@
         <v>1.392748</v>
       </c>
       <c r="C22" t="n">
-        <v>-0.5270625</v>
+        <v>-0.1004002</v>
       </c>
     </row>
     <row r="23">
@@ -2130,7 +2160,7 @@
         <v>1.13057</v>
       </c>
       <c r="C23" t="n">
-        <v>-0.7857712</v>
+        <v>-0.1613744</v>
       </c>
     </row>
     <row r="24">
@@ -2143,7 +2173,7 @@
         <v>1.392748</v>
       </c>
       <c r="C24" t="n">
-        <v>-0.9878153</v>
+        <v>-0.1929659</v>
       </c>
     </row>
     <row r="25">
@@ -2156,7 +2186,7 @@
         <v>1.13057</v>
       </c>
       <c r="C25" t="n">
-        <v>-1.167816</v>
+        <v>-0.2346528</v>
       </c>
     </row>
     <row r="26">
@@ -2169,7 +2199,7 @@
         <v>1.392748</v>
       </c>
       <c r="C26" t="n">
-        <v>-1.277155</v>
+        <v>-0.2481807</v>
       </c>
     </row>
     <row r="27">
@@ -2182,7 +2212,7 @@
         <v>1.13057</v>
       </c>
       <c r="C27" t="n">
-        <v>-1.366153</v>
+        <v>-0.2711802</v>
       </c>
     </row>
     <row r="28">
@@ -2195,7 +2225,7 @@
         <v>1.392748</v>
       </c>
       <c r="C28" t="n">
-        <v>-1.376899</v>
+        <v>-0.2659861</v>
       </c>
     </row>
     <row r="29">
@@ -2208,7 +2238,7 @@
         <v>1.13057</v>
       </c>
       <c r="C29" t="n">
-        <v>-1.367378</v>
+        <v>-0.2711975</v>
       </c>
     </row>
     <row r="30">
@@ -2221,7 +2251,7 @@
         <v>1.392748</v>
       </c>
       <c r="C30" t="n">
-        <v>-1.279613</v>
+        <v>-0.2482152</v>
       </c>
     </row>
     <row r="31">
@@ -2234,7 +2264,7 @@
         <v>1.13057</v>
       </c>
       <c r="C31" t="n">
-        <v>-1.171512</v>
+        <v>-0.2347045</v>
       </c>
     </row>
     <row r="32">
@@ -2247,7 +2277,7 @@
         <v>1.392748</v>
       </c>
       <c r="C32" t="n">
-        <v>-0.992768</v>
+        <v>-0.193035</v>
       </c>
     </row>
     <row r="33">
@@ -2260,7 +2290,7 @@
         <v>1.13057</v>
       </c>
       <c r="C33" t="n">
-        <v>-0.7919941</v>
+        <v>-0.1614607</v>
       </c>
     </row>
     <row r="34">
@@ -2273,7 +2303,7 @@
         <v>1.392748</v>
       </c>
       <c r="C34" t="n">
-        <v>-0.5345817</v>
+        <v>-0.1005039</v>
       </c>
     </row>
     <row r="35">
@@ -2286,7 +2316,7 @@
         <v>0.9993875</v>
       </c>
       <c r="C35" t="n">
-        <v>-0.2484102</v>
+        <v>-0.04953429</v>
       </c>
     </row>
     <row r="36">
@@ -2299,440 +2329,7 @@
         <v>1.558962</v>
       </c>
       <c r="C36" t="n">
-        <v>-0.04076342</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C32"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Node</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Mass</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Displacement</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr"/>
-      <c r="B2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C2" t="inlineStr"/>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>J113</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>1.645486</v>
-      </c>
-      <c r="C3" t="n">
-        <v>-0.0422071</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>J114</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>1.645486</v>
-      </c>
-      <c r="C4" t="n">
-        <v>-0.04232669</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>J117</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>1.645486</v>
-      </c>
-      <c r="C5" t="n">
-        <v>-0.04265762</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>J118</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>1.645486</v>
-      </c>
-      <c r="C6" t="n">
-        <v>-0.04277856</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>J119</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>1.143095</v>
-      </c>
-      <c r="C7" t="n">
-        <v>-0.0961786</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>J120</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>1.143095</v>
-      </c>
-      <c r="C8" t="n">
-        <v>-0.09628114</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>J121</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>1.143095</v>
-      </c>
-      <c r="C9" t="n">
-        <v>-0.09712128</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>J122</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>1.143095</v>
-      </c>
-      <c r="C10" t="n">
-        <v>-0.09722491</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>J123</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>1.122044</v>
-      </c>
-      <c r="C11" t="n">
-        <v>-0.1486705</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>J124</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>1.122044</v>
-      </c>
-      <c r="C12" t="n">
-        <v>-0.148756</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>J127</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>1.122044</v>
-      </c>
-      <c r="C13" t="n">
-        <v>-0.15013</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>J128</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>1.122044</v>
-      </c>
-      <c r="C14" t="n">
-        <v>-0.1502163</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>J129</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>1.143095</v>
-      </c>
-      <c r="C15" t="n">
-        <v>-0.1918997</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>J130</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>1.143095</v>
-      </c>
-      <c r="C16" t="n">
-        <v>-0.1919681</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>J131</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>1.143095</v>
-      </c>
-      <c r="C17" t="n">
-        <v>-0.1937154</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>J132</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>1.143095</v>
-      </c>
-      <c r="C18" t="n">
-        <v>-0.1937844</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>J133</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>1.121005</v>
-      </c>
-      <c r="C19" t="n">
-        <v>-0.2217938</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>J134</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>1.121005</v>
-      </c>
-      <c r="C20" t="n">
-        <v>-0.2218451</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>J137</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>1.121005</v>
-      </c>
-      <c r="C21" t="n">
-        <v>-0.223838</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>J138</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>1.121005</v>
-      </c>
-      <c r="C22" t="n">
-        <v>-0.2238898</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>J139</t>
-        </is>
-      </c>
-      <c r="B23" t="n">
-        <v>1.140717</v>
-      </c>
-      <c r="C23" t="n">
-        <v>-0.2445047</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>J140</t>
-        </is>
-      </c>
-      <c r="B24" t="n">
-        <v>1.140717</v>
-      </c>
-      <c r="C24" t="n">
-        <v>-0.2445389</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>J141</t>
-        </is>
-      </c>
-      <c r="B25" t="n">
-        <v>1.140717</v>
-      </c>
-      <c r="C25" t="n">
-        <v>-0.246701</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>J142</t>
-        </is>
-      </c>
-      <c r="B26" t="n">
-        <v>1.140717</v>
-      </c>
-      <c r="C26" t="n">
-        <v>-0.2467355</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>J143</t>
-        </is>
-      </c>
-      <c r="B27" t="n">
-        <v>1.118626</v>
-      </c>
-      <c r="C27" t="n">
-        <v>-0.2568271</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>J144</t>
-        </is>
-      </c>
-      <c r="B28" t="n">
-        <v>1.137654</v>
-      </c>
-      <c r="C28" t="n">
-        <v>-0.2619537</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>J145</t>
-        </is>
-      </c>
-      <c r="B29" t="n">
-        <v>1.118626</v>
-      </c>
-      <c r="C29" t="n">
-        <v>-0.2568442</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>J148</t>
-        </is>
-      </c>
-      <c r="B30" t="n">
-        <v>1.118626</v>
-      </c>
-      <c r="C30" t="n">
-        <v>-0.2591235</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>J149</t>
-        </is>
-      </c>
-      <c r="B31" t="n">
-        <v>1.137654</v>
-      </c>
-      <c r="C31" t="n">
-        <v>-0.2642762</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>J150</t>
-        </is>
-      </c>
-      <c r="B32" t="n">
-        <v>1.118626</v>
-      </c>
-      <c r="C32" t="n">
-        <v>-0.2591407</v>
+        <v>-0.001051426</v>
       </c>
     </row>
   </sheetData>
